--- a/excel_files/Comparison - NC_014019 & NC_014103.xlsx
+++ b/excel_files/Comparison - NC_014019 & NC_014103.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="62">
   <si>
     <t>NC_014019</t>
   </si>
@@ -98,118 +98,109 @@
     <t>-999</t>
   </si>
   <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
+    <t>2.0*</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
   </si>
   <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1.0*</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>5.0*</t>
   </si>
   <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
-    <t>2.0*</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>1.0*</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>5.0*</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
     <t>6.5</t>
   </si>
   <si>
-    <t>22.5</t>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
   </si>
 </sst>
 </file>
@@ -665,31 +656,31 @@
         <v>26</v>
       </c>
       <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
       <c r="R3" t="s">
         <v>26</v>
       </c>
       <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
       <c r="V3" t="s">
         <v>26</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -700,7 +691,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -765,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -774,28 +765,28 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -807,25 +798,25 @@
         <v>26</v>
       </c>
       <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" t="s">
         <v>26</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -842,43 +833,43 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>44</v>
       </c>
       <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
         <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
       </c>
       <c r="R6" t="s">
         <v>26</v>
@@ -890,13 +881,13 @@
         <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
         <v>26</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -910,28 +901,28 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -940,31 +931,31 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s">
         <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T7" t="s">
         <v>26</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
         <v>26</v>
       </c>
       <c r="W7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -972,13 +963,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -990,7 +981,7 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
@@ -999,28 +990,28 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s">
         <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s">
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T8" t="s">
         <v>26</v>
@@ -1032,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="W8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1046,61 +1037,61 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
         <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="T9" t="s">
         <v>26</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
         <v>26</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1114,28 +1105,28 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
@@ -1144,31 +1135,31 @@
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s">
         <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T10" t="s">
         <v>26</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
         <v>26</v>
       </c>
       <c r="W10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1182,61 +1173,61 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
         <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
         <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
         <v>26</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
         <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
         <v>26</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
         <v>26</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1250,49 +1241,49 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
         <v>26</v>
       </c>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="T12" t="s">
         <v>26</v>
@@ -1304,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="W12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1318,28 +1309,28 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>25</v>
@@ -1348,31 +1339,31 @@
         <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
         <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
         <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
         <v>26</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
         <v>26</v>
       </c>
       <c r="W13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1413,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
         <v>26</v>
@@ -1448,37 +1439,37 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
@@ -1490,25 +1481,25 @@
         <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
         <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
         <v>26</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
         <v>26</v>
       </c>
       <c r="W15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1555,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="s">
         <v>26</v>
@@ -1584,43 +1575,43 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
@@ -1632,19 +1623,19 @@
         <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
         <v>26</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="V17" t="s">
         <v>26</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:23">
@@ -1697,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s">
         <v>26</v>
@@ -1720,49 +1711,49 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
         <v>28</v>
       </c>
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" t="s">
-        <v>35</v>
-      </c>
       <c r="P19" t="s">
         <v>26</v>
       </c>
       <c r="Q19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -1774,13 +1765,13 @@
         <v>26</v>
       </c>
       <c r="U19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
         <v>26</v>
       </c>
       <c r="W19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:23">
@@ -1839,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s">
         <v>26</v>
@@ -1856,55 +1847,55 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
         <v>34</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
         <v>61</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" t="s">
-        <v>64</v>
       </c>
       <c r="T21" t="s">
         <v>26</v>
@@ -1981,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
@@ -1992,55 +1983,55 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" t="s">
         <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" t="s">
-        <v>26</v>
-      </c>
-      <c r="S23" t="s">
-        <v>30</v>
       </c>
       <c r="T23" t="s">
         <v>26</v>
